--- a/docs/项目文档/专利梳理.xlsx
+++ b/docs/项目文档/专利梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Project\01.Academy\02.SurgeryRebots\docs\项目文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB39258B-63F5-469C-AA35-CBD0D6362653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C4827C-76E6-4559-9D7E-A1E40C7DBB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <t>一种基于多个传感器融合引导的智能机器人经皮精准穿刺系统及其工作方法</t>
   </si>
   <si>
-    <t>一种通过超声监测进行针头位姿的实时反馈系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一种粒子植入技术中实现粒子智能分布和剂量计算的机械臂运动规划算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本方案公开了一种基于智能marker的人体表皮运动监测系统及其方法。所述系统中的智能marker，主要由铅层、陀螺仪、二维码等构成，在病人做术前CT等辅助检查之前贴在病人身上。在术中，可通过该智能marker进行CT图像的配准，同时，也可以监测并计算出病人由于呼吸导致腹部表皮产生的运动（以腹部为例），从而对表皮运动进行补偿，引导操纵臂精准定位目标。本方案能够实现实时监测人体表皮运动，并计算对应数学模型，引导操纵臂进行相应的运动补偿，从而更加精准地定位目标。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初稿审批流程中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本方案提供了一种图像引导的经皮精准穿刺系统的工作方法，本系统包括机械臂搭载的精准穿刺执行系统、机械臂搭载的超声探头实时监测系统、人体表皮运动实时补偿系统、图像采集及配准系统、以及中央处理系统。所述精准穿刺执行系统包括固定在手术床边的机械臂以及机械臂末端的穿刺工具，通过中央系统的控制移动到目标位置并执行穿刺。所述超声探头实时监测系统包括固定在床边的机械臂以及机械臂末端的超声探头，可以实时反馈体内情况，跟踪进针后针头在体内的位置。所述人体表皮运动实时补偿系统，包括若干个贴在体表的智能标签（内含陀螺仪），可以检测表皮的运动，从而进行实时补偿。所述图像采集与配准系统包括若干个固定在天花板上的摄像头、贴在病人身上的若干标签，以及术前CT的三维重建图像。通过该系统，医师可以通过控制按钮来控制穿刺，使医师从穿刺任务中解放，提高穿刺准确率，减少病人痛苦；并且该系统也可用于放射性粒子植入技术中，避免了医师出现在辐射区域，减少医师的辐射风险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,14 +75,6 @@
   </si>
   <si>
     <t>一种基于AI技术动态调整机械臂进针速度的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种用于穿刺手术中基于CT和超声融合的三维重建技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本方案公开了一种用于穿刺手术中基于CT和超声融合的三维重建方法、系统和装置。该方法依托系统包括图像采集和配准系统、搭载超声探头的实时监测系统、中央处理系统。中央处理系统将术中超声图像、术前CT的三维图像以及术中的人体图像相结合，实现术中实时的术区三维场景重建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,7 +107,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本方案公开了一种通过超声监测进行针头位姿的实时反馈算法，包括术中机械臂搭载的超声探头实时监测系统、中央处理系统。所述的术中机械臂搭载的超声探头实时监测系统将实时监测到的超声图像传输至中央处理系统，中央处理系统通过对搭载精准穿刺执行系统的机械臂和搭载超声探头实时监测系统的机械臂的坐标进行相应计算，结合CT的三维重建图像，可以计算出针头在体内的位姿及深度，从而在CT的三维重新图像中实时显示针头在人体的位置状态。使用本方案，能够将针在体内的状态直观反映出来，有助于医生更直观地控制手术进程，保证手术的安全性。</t>
+    <t>技术点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针头实时位置反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸运动补偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术前CT与术中人体配准
+（也包含了与机械臂的配准）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本方案公开了一种术中呼吸运动补偿的方法、系统、装置及存储介质。所述系统能够监测并计算出病人由于呼吸导致腹部表皮产生的运动（以腹部为例），从而对表皮运动进行补偿，引导操纵臂精准定位目标。本方案能够实现实时监测人体表皮运动，并计算对应数学模型，引导操纵臂进行相应的运动补偿，从而更加精准地定位目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请受理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本方案公开了一种视觉定位方法、系统、装置及存储介质。所述系统中的视觉定位方法，通过在患者身上粘贴多个铅质二维码，分别获取铅质二维码在术前CT三维模型与术中相机系统中的坐标。通过非线性优化对多组配准参数进行优化，从而将术中患者真实的病灶位置与CT三维模型中的病灶位置进行配准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种呼吸运动补偿的方法、系统、装置及存储介质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种基于术前CT与术中超声影像的实时三维重建技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本方案公开了一种基于术前CT与术中超声影像的实时三维重建技术。通过超声监测进行针头位姿的实时反馈，包括术中搭载在机械臂上的超声探头实时监测系统、搭载于机械臂上的精准春次执行系统以及中央处理系统。所述的术中搭载于机械臂上的超声探头实时监测系统将实时监测到的超声图像传输至中央处理系统，中央处理系统通过对搭载精准穿刺执行系统的机械臂和搭载超声探头实时监测系统的机械臂的坐标进行相应计算，结合CT的三维重建图像，可以计算出针头在体内的位姿及深度，从而在CT的三维重新图像中实时显示针头在人体的位置状态。使用本方案，能够将针在体内的状态直观反映出来，有助于医生更直观地控制手术进程，保证手术的安全性。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -222,6 +247,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,129 +537,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="75.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="56.4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
